--- a/public/assets/QuizTemplate.xlsx
+++ b/public/assets/QuizTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\Chuyên ngành 5\SWP391\client\public\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F26462-C384-47BB-B67E-8E2D00E13B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B374EB5-932F-4A44-BFA8-CB3DFF585585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Content</t>
   </si>
@@ -43,13 +43,25 @@
     <t>CorrectAnswer</t>
   </si>
   <si>
-    <t>Course</t>
-  </si>
-  <si>
-    <t>Chapter</t>
-  </si>
-  <si>
-    <t>Topic</t>
+    <t>Một hình tam giác có bao nhiêu cạnh ?</t>
+  </si>
+  <si>
+    <t>Hình học</t>
+  </si>
+  <si>
+    <t>1 cạnh</t>
+  </si>
+  <si>
+    <t>2 cạnh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 cạnh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 cạnh </t>
+  </si>
+  <si>
+    <t>3 cạnh</t>
   </si>
 </sst>
 </file>
@@ -389,60 +401,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.69921875" customWidth="1"/>
-    <col min="2" max="2" width="17.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.8984375" customWidth="1"/>
-    <col min="5" max="5" width="16.09765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.59765625" customWidth="1"/>
+    <col min="1" max="1" width="41.69921875" customWidth="1"/>
+    <col min="2" max="2" width="18.8984375" customWidth="1"/>
+    <col min="3" max="3" width="20.5" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="20.8984375" customWidth="1"/>
+    <col min="6" max="6" width="22.69921875" customWidth="1"/>
+    <col min="7" max="7" width="24.8984375" customWidth="1"/>
     <col min="10" max="10" width="15.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" t="s">
-        <v>6</v>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/public/assets/QuizTemplate.xlsx
+++ b/public/assets/QuizTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\Chuyên ngành 5\SWP391\client\public\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B374EB5-932F-4A44-BFA8-CB3DFF585585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FEB00C-DC6D-40DC-BC84-836CD8B579AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Content</t>
   </si>
@@ -28,40 +28,19 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Option1</t>
-  </si>
-  <si>
-    <t>Option2</t>
-  </si>
-  <si>
-    <t>Option3</t>
-  </si>
-  <si>
-    <t>Option4</t>
-  </si>
-  <si>
-    <t>CorrectAnswer</t>
-  </si>
-  <si>
-    <t>Một hình tam giác có bao nhiêu cạnh ?</t>
-  </si>
-  <si>
-    <t>Hình học</t>
-  </si>
-  <si>
-    <t>1 cạnh</t>
-  </si>
-  <si>
-    <t>2 cạnh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 cạnh </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 cạnh </t>
-  </si>
-  <si>
-    <t>3 cạnh</t>
+    <t>Option 1</t>
+  </si>
+  <si>
+    <t>Option 2</t>
+  </si>
+  <si>
+    <t>Option 3</t>
+  </si>
+  <si>
+    <t>Option 4</t>
+  </si>
+  <si>
+    <t>Correct Answer</t>
   </si>
 </sst>
 </file>
@@ -401,23 +380,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="J7" sqref="J6:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="41.69921875" customWidth="1"/>
-    <col min="2" max="2" width="18.8984375" customWidth="1"/>
-    <col min="3" max="3" width="20.5" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="20.8984375" customWidth="1"/>
-    <col min="6" max="6" width="22.69921875" customWidth="1"/>
-    <col min="7" max="7" width="24.8984375" customWidth="1"/>
-    <col min="10" max="10" width="15.19921875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -440,29 +409,6 @@
       </c>
       <c r="G1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
